--- a/水电气表数据.xlsx
+++ b/水电气表数据.xlsx
@@ -374,7 +374,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -384,7 +384,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2445</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -392,7 +392,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -400,7 +400,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>94</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
